--- a/static/spreadsheet/Template_5.xlsx
+++ b/static/spreadsheet/Template_5.xlsx
@@ -632,11 +632,11 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="5"/>
-      <c r="AA1" s="0"/>
-      <c r="AB1" s="0"/>
-      <c r="AC1" s="0"/>
-      <c r="AD1" s="0"/>
-      <c r="AE1" s="0"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
       <c r="AF1" s="0"/>
       <c r="AG1" s="0"/>
       <c r="AH1" s="0"/>
@@ -1658,11 +1658,11 @@
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="9"/>
-      <c r="AA2" s="0"/>
-      <c r="AB2" s="0"/>
-      <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="0"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
       <c r="AF2" s="0"/>
       <c r="AG2" s="0"/>
       <c r="AH2" s="0"/>
@@ -2684,11 +2684,11 @@
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="0"/>
-      <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
       <c r="AF3" s="0"/>
       <c r="AG3" s="0"/>
       <c r="AH3" s="0"/>
@@ -3710,11 +3710,11 @@
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
       <c r="Z4" s="24"/>
-      <c r="AA4" s="0"/>
-      <c r="AB4" s="0"/>
-      <c r="AC4" s="0"/>
-      <c r="AD4" s="0"/>
-      <c r="AE4" s="0"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
       <c r="AF4" s="0"/>
       <c r="AG4" s="0"/>
       <c r="AH4" s="0"/>
@@ -4736,11 +4736,11 @@
       <c r="X5" s="28"/>
       <c r="Y5" s="28"/>
       <c r="Z5" s="29"/>
-      <c r="AA5" s="0"/>
-      <c r="AB5" s="0"/>
-      <c r="AC5" s="0"/>
-      <c r="AD5" s="0"/>
-      <c r="AE5" s="0"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
       <c r="AF5" s="0"/>
       <c r="AG5" s="0"/>
       <c r="AH5" s="0"/>
@@ -5762,11 +5762,11 @@
       <c r="X6" s="28"/>
       <c r="Y6" s="28"/>
       <c r="Z6" s="29"/>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="0"/>
-      <c r="AC6" s="0"/>
-      <c r="AD6" s="0"/>
-      <c r="AE6" s="0"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
       <c r="AF6" s="0"/>
       <c r="AG6" s="0"/>
       <c r="AH6" s="0"/>
@@ -6788,11 +6788,11 @@
       <c r="X7" s="28"/>
       <c r="Y7" s="28"/>
       <c r="Z7" s="29"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0"/>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
       <c r="AF7" s="0"/>
       <c r="AG7" s="0"/>
       <c r="AH7" s="0"/>
@@ -7814,11 +7814,11 @@
       <c r="X8" s="28"/>
       <c r="Y8" s="28"/>
       <c r="Z8" s="29"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
       <c r="AF8" s="0"/>
       <c r="AG8" s="0"/>
       <c r="AH8" s="0"/>
@@ -8840,11 +8840,11 @@
       <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
       <c r="Z9" s="34"/>
-      <c r="AA9" s="0"/>
-      <c r="AB9" s="0"/>
-      <c r="AC9" s="0"/>
-      <c r="AD9" s="0"/>
-      <c r="AE9" s="0"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
       <c r="AF9" s="0"/>
       <c r="AG9" s="0"/>
       <c r="AH9" s="0"/>
